--- a/data/oru/original_data/ORU APC_data 2015_2017_upload 20180601.xlsx
+++ b/data/oru/original_data/ORU APC_data 2015_2017_upload 20180601.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Open Access\OpenAPC Sweden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camlin/openapc-se/data/oru/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{531E11FD-7DF7-D94A-9168-B2002B358613}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38055" windowHeight="23265" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="template" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="template" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/ulfkro/OneDrive/KB-dokument/Open Access/Kostnader/Open APC Sweden/openapc-se/template/template.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="11">
         <textField/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="177">
   <si>
     <t>institution</t>
   </si>
@@ -96,9 +97,6 @@
     <t>10.1097/PR9.0000000000000600</t>
   </si>
   <si>
-    <t>10.1038/ctg.2015.4F9</t>
-  </si>
-  <si>
     <t>10.1038/srep21911</t>
   </si>
   <si>
@@ -580,12 +578,15 @@
   </si>
   <si>
     <t>OMICS Publishing Group</t>
+  </si>
+  <si>
+    <t>10.1038/ctg.2015.49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -656,7 +657,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="template" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="template" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,26 +922,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K280"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="144" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -989,7 +990,7 @@
         <v>900</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1006,7 +1007,7 @@
         <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1023,7 +1024,7 @@
         <v>2150</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1040,7 +1041,7 @@
         <v>2150</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1057,7 +1058,7 @@
         <v>2150</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1074,7 +1075,7 @@
         <v>2150</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1091,7 +1092,7 @@
         <v>2150</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1108,7 +1109,7 @@
         <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1125,7 +1126,7 @@
         <v>532</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1142,7 +1143,7 @@
         <v>2231</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1159,7 +1160,7 @@
         <v>1898</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1176,7 +1177,7 @@
         <v>1780</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1193,7 +1194,7 @@
         <v>1215</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1210,7 +1211,7 @@
         <v>1350</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1227,7 +1228,7 @@
         <v>1800</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1244,7 +1245,7 @@
         <v>2655</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1261,7 +1262,7 @@
         <v>2001</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1278,7 +1279,7 @@
         <v>2655</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1295,7 +1296,7 @@
         <v>960</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1312,7 +1313,7 @@
         <v>960</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1329,7 +1330,7 @@
         <v>2700</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1346,7 +1347,7 @@
         <v>2700</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1363,7 +1364,7 @@
         <v>941</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1380,7 +1381,7 @@
         <v>1242</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1397,7 +1398,7 @@
         <v>1952</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1414,7 +1415,7 @@
         <v>1952</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1431,7 +1432,7 @@
         <v>1952</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1448,7 +1449,7 @@
         <v>1952</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1482,7 +1483,7 @@
         <v>1165</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1499,7 +1500,7 @@
         <v>1221</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1516,7 +1517,7 @@
         <v>545</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1533,7 +1534,7 @@
         <v>2150</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1550,7 +1551,7 @@
         <v>2150</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1567,7 +1568,7 @@
         <v>2150</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1584,7 +1585,7 @@
         <v>1000</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1601,7 +1602,7 @@
         <v>2480</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1618,7 +1619,7 @@
         <v>1623</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1635,7 +1636,7 @@
         <v>1173</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1652,7 +1653,7 @@
         <v>1740</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1669,7 +1670,7 @@
         <v>1928</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1686,7 +1687,7 @@
         <v>2000</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1703,7 +1704,7 @@
         <v>1732</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1720,7 +1721,7 @@
         <v>1732</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1737,7 +1738,7 @@
         <v>1757</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1754,7 +1755,7 @@
         <v>1732</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1771,7 +1772,7 @@
         <v>1732</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -1788,7 +1789,7 @@
         <v>1732</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1805,7 +1806,7 @@
         <v>1732</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1822,7 +1823,7 @@
         <v>2379</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1839,7 +1840,7 @@
         <v>828</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -1856,7 +1857,7 @@
         <v>1472</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -1873,7 +1874,7 @@
         <v>2318</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1890,7 +1891,7 @@
         <v>800</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1910,16 +1911,16 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s">
         <v>85</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>168</v>
+      </c>
+      <c r="K56" t="s">
         <v>86</v>
-      </c>
-      <c r="H56" t="s">
-        <v>169</v>
-      </c>
-      <c r="K56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1936,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
         <v>88</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" t="s">
         <v>89</v>
-      </c>
-      <c r="H57" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1959,7 +1960,7 @@
         <v>360</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -1976,7 +1977,7 @@
         <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -1993,7 +1994,7 @@
         <v>647</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2010,7 +2011,7 @@
         <v>2200</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -2027,7 +2028,7 @@
         <v>2200</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -2044,7 +2045,7 @@
         <v>2200</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -2061,7 +2062,7 @@
         <v>2200</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -2078,7 +2079,7 @@
         <v>2200</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -2095,7 +2096,7 @@
         <v>2200</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -2112,7 +2113,7 @@
         <v>2200</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -2129,7 +2130,7 @@
         <v>2200</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2146,7 +2147,7 @@
         <v>2200</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2163,7 +2164,7 @@
         <v>2000</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -2180,7 +2181,7 @@
         <v>1425</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -2197,7 +2198,7 @@
         <v>1140</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
@@ -2214,7 +2215,7 @@
         <v>890</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -2231,7 +2232,7 @@
         <v>2670</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -2282,7 +2283,7 @@
         <v>2275</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -2299,7 +2300,7 @@
         <v>2150</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -2316,7 +2317,7 @@
         <v>2706</v>
       </c>
       <c r="D79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -2333,7 +2334,7 @@
         <v>2255</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -2350,7 +2351,7 @@
         <v>2691</v>
       </c>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -2367,7 +2368,7 @@
         <v>1749</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -2384,7 +2385,7 @@
         <v>1346</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -2401,7 +2402,7 @@
         <v>1542</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -2418,7 +2419,7 @@
         <v>1307</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -2435,7 +2436,7 @@
         <v>1750</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -2452,7 +2453,7 @@
         <v>1619</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -2469,7 +2470,7 @@
         <v>1331</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2486,7 +2487,7 @@
         <v>1331</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -2503,7 +2504,7 @@
         <v>2225</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -2520,7 +2521,7 @@
         <v>315</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2537,7 +2538,7 @@
         <v>1620</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -2554,7 +2555,7 @@
         <v>1575</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -2571,7 +2572,7 @@
         <v>2808</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -2588,7 +2589,7 @@
         <v>1700</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -2605,7 +2606,7 @@
         <v>870</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -2625,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
+        <v>94</v>
+      </c>
+      <c r="G97" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97" t="s">
         <v>95</v>
       </c>
-      <c r="G97" t="s">
+      <c r="K97" t="s">
         <v>97</v>
-      </c>
-      <c r="H97" t="s">
-        <v>96</v>
-      </c>
-      <c r="K97" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2648,7 +2649,7 @@
         <v>2200</v>
       </c>
       <c r="D98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -2665,7 +2666,7 @@
         <v>2200</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -2682,7 +2683,7 @@
         <v>2200</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -2699,7 +2700,7 @@
         <v>2200</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -2716,7 +2717,7 @@
         <v>2200</v>
       </c>
       <c r="D102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
@@ -2733,7 +2734,7 @@
         <v>2200</v>
       </c>
       <c r="D103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -2750,7 +2751,7 @@
         <v>2200</v>
       </c>
       <c r="D104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
@@ -2767,7 +2768,7 @@
         <v>2200</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -2784,7 +2785,7 @@
         <v>2200</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
@@ -2801,7 +2802,7 @@
         <v>2200</v>
       </c>
       <c r="D107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
@@ -2818,7 +2819,7 @@
         <v>2200</v>
       </c>
       <c r="D108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
@@ -2835,7 +2836,7 @@
         <v>2200</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -2852,7 +2853,7 @@
         <v>2200</v>
       </c>
       <c r="D110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E110" t="b">
         <v>1</v>
@@ -2869,7 +2870,7 @@
         <v>2200</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -2886,7 +2887,7 @@
         <v>2200</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -2903,7 +2904,7 @@
         <v>2200</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -2920,7 +2921,7 @@
         <v>2200</v>
       </c>
       <c r="D114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
@@ -2937,7 +2938,7 @@
         <v>2200</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -2954,7 +2955,7 @@
         <v>2200</v>
       </c>
       <c r="D116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
@@ -2971,7 +2972,7 @@
         <v>2200</v>
       </c>
       <c r="D117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E117" t="b">
         <v>1</v>
@@ -2988,7 +2989,7 @@
         <v>2200</v>
       </c>
       <c r="D118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -3005,7 +3006,7 @@
         <v>2200</v>
       </c>
       <c r="D119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E119" t="b">
         <v>1</v>
@@ -3022,7 +3023,7 @@
         <v>2200</v>
       </c>
       <c r="D120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -3039,7 +3040,7 @@
         <v>2200</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
@@ -3056,7 +3057,7 @@
         <v>2200</v>
       </c>
       <c r="D122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
@@ -3073,7 +3074,7 @@
         <v>2200</v>
       </c>
       <c r="D123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E123" t="b">
         <v>1</v>
@@ -3090,7 +3091,7 @@
         <v>2200</v>
       </c>
       <c r="D124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -3107,7 +3108,7 @@
         <v>2200</v>
       </c>
       <c r="D125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
@@ -3124,7 +3125,7 @@
         <v>2200</v>
       </c>
       <c r="D126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E126" t="b">
         <v>1</v>
@@ -3141,7 +3142,7 @@
         <v>2200</v>
       </c>
       <c r="D127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E127" t="b">
         <v>1</v>
@@ -3158,7 +3159,7 @@
         <v>1346</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
@@ -3175,7 +3176,7 @@
         <v>2600</v>
       </c>
       <c r="D129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -3192,7 +3193,7 @@
         <v>2600</v>
       </c>
       <c r="D130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -3209,7 +3210,7 @@
         <v>849</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
@@ -3226,7 +3227,7 @@
         <v>1350</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
@@ -3243,7 +3244,7 @@
         <v>3870</v>
       </c>
       <c r="D133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
@@ -3260,7 +3261,7 @@
         <v>1338</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
@@ -3277,7 +3278,7 @@
         <v>1619</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
@@ -3294,7 +3295,7 @@
         <v>1732</v>
       </c>
       <c r="D136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
@@ -3311,7 +3312,7 @@
         <v>2200</v>
       </c>
       <c r="D137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -3328,7 +3329,7 @@
         <v>1215</v>
       </c>
       <c r="D138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
@@ -3345,7 +3346,7 @@
         <v>2208</v>
       </c>
       <c r="D139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E139" t="b">
         <v>1</v>
@@ -3362,7 +3363,7 @@
         <v>1692</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
@@ -3379,7 +3380,7 @@
         <v>2655</v>
       </c>
       <c r="D141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E141" t="b">
         <v>1</v>
@@ -3396,7 +3397,7 @@
         <v>1575</v>
       </c>
       <c r="D142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E142" t="b">
         <v>1</v>
@@ -3413,7 +3414,7 @@
         <v>1125</v>
       </c>
       <c r="D143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E143" t="b">
         <v>1</v>
@@ -3430,7 +3431,7 @@
         <v>216</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
@@ -3447,7 +3448,7 @@
         <v>899</v>
       </c>
       <c r="D145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
@@ -3464,7 +3465,7 @@
         <v>899</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
@@ -3481,7 +3482,7 @@
         <v>1080</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
@@ -3498,7 +3499,7 @@
         <v>1080</v>
       </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
@@ -3515,7 +3516,7 @@
         <v>899</v>
       </c>
       <c r="D149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
@@ -3535,16 +3536,16 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
+        <v>165</v>
+      </c>
+      <c r="G150" t="s">
         <v>166</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>167</v>
       </c>
-      <c r="H150" t="s">
-        <v>168</v>
-      </c>
       <c r="K150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -3561,666 +3562,21 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G151" t="s">
+        <v>170</v>
+      </c>
+      <c r="H151" t="s">
         <v>171</v>
       </c>
-      <c r="H151" t="s">
+      <c r="K151" t="s">
         <v>172</v>
       </c>
-      <c r="K151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K280">
-    <sortCondition ref="B2:B280"/>
+  <sortState ref="A2:K151">
+    <sortCondition ref="B2:B151"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
